--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2347079.412841043</v>
+        <v>2325330.933099327</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184108.078182775</v>
+        <v>4184108.078182771</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8094025.537165669</v>
+        <v>8094025.53716567</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>80.48689361945853</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>281.8482037270207</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0.0506985616704344</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1584,16 +1584,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>182.9752870414674</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.4309586395795</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1666,16 +1666,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>43.58035547795942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>103.2354093774329</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>49.46690454888309</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>288.2822493900566</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.22746565719256</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>343.7240673580641</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>303.4255546399563</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.2891316271636</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>201.6086852141651</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>68.90171938503863</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>18.93482921065052</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>49.83383350955521</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.275899653937751</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>166.1869928089828</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>145.4181264572034</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>259.755308893867</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>122.4906456029447</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>35.52360802547786</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>116.1945855079749</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.3165365479904</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>213.861488180113</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>265.7900564756485</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>135.4334972246866</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>174.1585076791648</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>300.8483813057266</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>79.03187764303514</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>18.93482921065052</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.888902619762391</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>94.81275980261485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>91.61745183476951</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.7659861796027</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>35.22061871095689</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>70.51113862850674</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>365.949683981423</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75764049751768</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>81.26439500202909</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>225.7508892923954</v>
+        <v>98.06558468344933</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.6947366044282</v>
+        <v>103.134041180997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1384.829779622645</v>
+        <v>2218.876689164176</v>
       </c>
       <c r="C11" t="n">
-        <v>1015.867262682233</v>
+        <v>1849.914172223765</v>
       </c>
       <c r="D11" t="n">
-        <v>1015.867262682233</v>
+        <v>1491.648473617014</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>1105.86022101877</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5041,16 +5041,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.034709923658</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X11" t="n">
-        <v>2161.568951662578</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y11" t="n">
-        <v>1771.429619686767</v>
+        <v>2218.876689164176</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.7574741064773</v>
+        <v>624.6989751875257</v>
       </c>
       <c r="C13" t="n">
-        <v>608.7574741064773</v>
+        <v>624.6989751875257</v>
       </c>
       <c r="D13" t="n">
-        <v>458.6408346941415</v>
+        <v>624.6989751875257</v>
       </c>
       <c r="E13" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
@@ -5232,19 +5232,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1239.188068978264</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1239.188068978264</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>1239.188068978264</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X13" t="n">
-        <v>1011.198518080247</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y13" t="n">
-        <v>790.405938936717</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1208.812782134349</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C14" t="n">
-        <v>839.8502651939375</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D14" t="n">
-        <v>481.5845665871869</v>
+        <v>937.45022757839</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,16 +5290,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2711.786367705477</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2359.017712435363</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X14" t="n">
-        <v>1985.551954174283</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y14" t="n">
-        <v>1595.412622198471</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="15">
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1733.185899555685</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1733.185899555685</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1733.185899555685</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.51186045178</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.71928130825</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1252.833343223196</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C17" t="n">
-        <v>1252.833343223196</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D17" t="n">
-        <v>1252.833343223196</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="E17" t="n">
-        <v>867.0450906249521</v>
+        <v>768.6922125248784</v>
       </c>
       <c r="F17" t="n">
-        <v>456.0591858353445</v>
+        <v>357.7063077352709</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>357.7063077352709</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.03827352421</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>2029.57251526313</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y17" t="n">
-        <v>1639.433183287318</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>396.7094242895083</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>227.7732413616014</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>227.7732413616014</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>227.7732413616014</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>80.88329386369105</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5709,16 +5709,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>845.4915543310558</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>617.5020034330385</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y19" t="n">
-        <v>396.7094242895083</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1480.516858765518</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C20" t="n">
-        <v>1111.554341825106</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D20" t="n">
-        <v>753.2886432183557</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E20" t="n">
-        <v>753.2886432183557</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F20" t="n">
-        <v>753.2886432183557</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.721789066531</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X20" t="n">
-        <v>2257.256030805451</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y20" t="n">
-        <v>1867.11669882964</v>
+        <v>1502.309837160186</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>794.6070935315613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C22" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1224.739181610489</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W22" t="n">
-        <v>1224.739181610489</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X22" t="n">
-        <v>996.7496307124713</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y22" t="n">
-        <v>976.255558361801</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2209.232076102166</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="C23" t="n">
-        <v>1840.269559161754</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D23" t="n">
-        <v>1482.003860555003</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E23" t="n">
-        <v>1096.215607956759</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
-        <v>685.2297031671517</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>270.1572530121481</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077977</v>
+        <v>2002.377689832115</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102166</v>
+        <v>1612.238357856303</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>431.4421061205821</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C25" t="n">
-        <v>431.4421061205821</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D25" t="n">
-        <v>431.4421061205821</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E25" t="n">
-        <v>431.4421061205821</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F25" t="n">
-        <v>284.5521586226718</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G25" t="n">
-        <v>116.8493219973907</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>880.2242361621296</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>652.2346852641123</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>431.4421061205821</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1144.044138553435</v>
+        <v>1942.567517572959</v>
       </c>
       <c r="C26" t="n">
-        <v>775.0816216130238</v>
+        <v>1942.567517572959</v>
       </c>
       <c r="D26" t="n">
-        <v>775.0816216130238</v>
+        <v>1584.301818966209</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>1198.513566367964</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>787.5276615783569</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>372.4552114233533</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>74.87161103212054</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y26" t="n">
-        <v>1530.643978617557</v>
+        <v>2329.167357637081</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.6489837069648</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C28" t="n">
-        <v>657.6489837069648</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="D28" t="n">
-        <v>507.5323442946291</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E28" t="n">
-        <v>359.619250712236</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F28" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6414,22 +6414,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1383.399106780052</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V28" t="n">
-        <v>1128.714618574165</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W28" t="n">
-        <v>839.2974485372046</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X28" t="n">
-        <v>839.2974485372046</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y28" t="n">
-        <v>839.2974485372046</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2011.826014609889</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C29" t="n">
-        <v>1642.863497669478</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D29" t="n">
-        <v>1284.597799062727</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E29" t="n">
-        <v>898.809546464483</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>487.8236416748754</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2788.565186649823</v>
+        <v>2719.924496445356</v>
       </c>
       <c r="W29" t="n">
-        <v>2788.565186649823</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="X29" t="n">
-        <v>2788.565186649823</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y29" t="n">
-        <v>2398.425854674011</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>234.2149530574645</v>
+        <v>743.0391787935281</v>
       </c>
       <c r="C31" t="n">
-        <v>234.2149530574645</v>
+        <v>743.0391787935281</v>
       </c>
       <c r="D31" t="n">
-        <v>234.2149530574645</v>
+        <v>743.0391787935281</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574645</v>
+        <v>595.126085211135</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X31" t="n">
-        <v>362.8175152271517</v>
+        <v>963.8317579370582</v>
       </c>
       <c r="Y31" t="n">
-        <v>234.2149530574645</v>
+        <v>743.0391787935281</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2175.400891308158</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C32" t="n">
-        <v>1806.438374367746</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D32" t="n">
-        <v>1448.172675760996</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6703,13 +6703,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060172</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X32" t="n">
-        <v>2952.140063348092</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.00073137228</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>644.3338566427974</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C34" t="n">
-        <v>644.3338566427974</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D34" t="n">
-        <v>644.3338566427974</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4207630604043</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F34" t="n">
-        <v>349.5308155624939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
         <v>66.51211643218343</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y34" t="n">
-        <v>644.3338566427974</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1879.82957821044</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C35" t="n">
-        <v>1879.82957821044</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250373</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X35" t="n">
-        <v>2656.568750250373</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y35" t="n">
-        <v>2266.429418274562</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.3980557622424</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C37" t="n">
-        <v>678.4618728343355</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D37" t="n">
-        <v>528.3452334219998</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E37" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
         <v>212.7293032143256</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1548.361223971664</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.944053934704</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>1030.954503036686</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.046520592482</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2071.975386180639</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>574.1274472283683</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>159.0549970733647</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7183,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2071.975386180639</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>2071.975386180639</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>381.1049005553748</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C40" t="n">
-        <v>381.1049005553748</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D40" t="n">
-        <v>381.1049005553748</v>
+        <v>494.2172172304616</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>346.3041236480685</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>199.4141761501582</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>970.0546934046018</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>742.0651425065845</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>521.2725633630544</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796256</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C41" t="n">
-        <v>552.807938939214</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D41" t="n">
-        <v>552.807938939214</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>552.807938939214</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
         <v>481.5845665871869</v>
@@ -7411,16 +7411,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7450,13 +7450,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="42">
@@ -7496,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.0764108006842</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C43" t="n">
-        <v>392.1402278727774</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D43" t="n">
-        <v>392.1402278727774</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E43" t="n">
-        <v>392.1402278727774</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F43" t="n">
-        <v>392.1402278727774</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
         <v>310.0549803959803</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.608663915319</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.924175709432</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.507005672471</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>963.5174547744541</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.724875630924</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1594.601034732593</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C44" t="n">
-        <v>1225.638517792182</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D44" t="n">
-        <v>867.3728191854311</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E44" t="n">
-        <v>481.5845665871869</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7648,16 +7648,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3097.574620303721</v>
+        <v>2656.750782649426</v>
       </c>
       <c r="W44" t="n">
-        <v>2744.805965033606</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="X44" t="n">
-        <v>2371.340206772526</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="Y44" t="n">
-        <v>1981.200874796715</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.0623554265553</v>
+        <v>339.6240985328146</v>
       </c>
       <c r="C46" t="n">
-        <v>152.0623554265553</v>
+        <v>170.6879156049077</v>
       </c>
       <c r="D46" t="n">
-        <v>152.0623554265553</v>
+        <v>170.6879156049077</v>
       </c>
       <c r="E46" t="n">
-        <v>152.0623554265553</v>
+        <v>170.6879156049077</v>
       </c>
       <c r="F46" t="n">
-        <v>152.0623554265553</v>
+        <v>170.6879156049077</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>782.4929502983425</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X46" t="n">
-        <v>554.5033994003252</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y46" t="n">
-        <v>333.710820256795</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3760925029319</v>
+        <v>111.3760925029324</v>
       </c>
       <c r="K2" t="n">
-        <v>115.6728628570349</v>
+        <v>115.6728628570357</v>
       </c>
       <c r="L2" t="n">
-        <v>106.2279079411518</v>
+        <v>106.2279079411527</v>
       </c>
       <c r="M2" t="n">
-        <v>86.20968475950659</v>
+        <v>86.20968475950764</v>
       </c>
       <c r="N2" t="n">
-        <v>82.9442350844943</v>
+        <v>82.94423508449538</v>
       </c>
       <c r="O2" t="n">
-        <v>91.79185002470177</v>
+        <v>91.7918500247028</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1917161337032</v>
+        <v>113.1917161337041</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6616048283639</v>
+        <v>133.6616048283645</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34276391131237</v>
+        <v>85.34276391131269</v>
       </c>
       <c r="K3" t="n">
-        <v>66.92010932095943</v>
+        <v>66.92010932095995</v>
       </c>
       <c r="L3" t="n">
-        <v>43.19189982519168</v>
+        <v>43.19189982519239</v>
       </c>
       <c r="M3" t="n">
-        <v>30.85051777249794</v>
+        <v>30.85051777249876</v>
       </c>
       <c r="N3" t="n">
-        <v>17.11285239577211</v>
+        <v>17.11285239577296</v>
       </c>
       <c r="O3" t="n">
-        <v>38.09915424948109</v>
+        <v>38.09915424948186</v>
       </c>
       <c r="P3" t="n">
-        <v>50.10627990666504</v>
+        <v>50.10627990666565</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.9181518943019</v>
+        <v>83.91815189430233</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>86.23379249476849</v>
+        <v>86.23379249476881</v>
       </c>
       <c r="L4" t="n">
-        <v>80.14168867079292</v>
+        <v>80.14168867079331</v>
       </c>
       <c r="M4" t="n">
-        <v>81.20697904562942</v>
+        <v>81.20697904562985</v>
       </c>
       <c r="N4" t="n">
-        <v>71.33916373595426</v>
+        <v>71.33916373595468</v>
       </c>
       <c r="O4" t="n">
-        <v>86.41153592235734</v>
+        <v>86.41153592235773</v>
       </c>
       <c r="P4" t="n">
-        <v>93.19451333315368</v>
+        <v>93.19451333315399</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48187344321936</v>
+        <v>14.48187344321937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.4434764528032</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>125.0278420146907</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.3832640848987</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>103.2365511641455</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.4994114326823</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>284.1719029921755</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>91.26811680410442</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>86.53361595400898</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>361.4548211045704</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.325514997263895</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>151.7983426018357</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>67.19765829538932</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>82.81238401609727</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.2955217249312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>92.99907917315539</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>300.8293812934304</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>160.8971509712868</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>94.92118140476558</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>33.3010301189882</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>220.0509458470708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.197346561008914</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>26.45652931174584</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>288.4310800505088</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>292.228650444657</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.22646251495631</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.26811680410442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>168.0688818921488</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>103.9410442028205</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>30.59231103434166</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>51.5511477098724</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>53.83466031495635</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>331.8898480104183</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>160.8971509712868</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.6957507323324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>202.990312552551</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.06599400233455</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130.8051895480713</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>336.3649071132047</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>3.781416697045984</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>105.0743396844196</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>84.76141325699913</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>102.0013691777395</v>
+        <v>229.6866737866856</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>81.33107165460002</v>
+        <v>62.89176707803118</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>828961.7429397198</v>
+        <v>828961.7429397202</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659483.4233799834</v>
+        <v>659483.4233799835</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659483.4233799835</v>
+        <v>659483.4233799834</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659483.4233799835</v>
+        <v>659483.4233799833</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659483.4233799833</v>
+        <v>659483.4233799835</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659483.4233799835</v>
+        <v>659483.4233799834</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659483.4233799834</v>
+        <v>659483.4233799833</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659483.4233799834</v>
+        <v>659483.4233799835</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655473.3435977302</v>
+        <v>655473.3435977298</v>
       </c>
       <c r="C2" t="n">
         <v>655481.1746633911</v>
       </c>
       <c r="D2" t="n">
-        <v>655487.8348501151</v>
+        <v>655487.834850115</v>
       </c>
       <c r="E2" t="n">
-        <v>545595.3583534729</v>
+        <v>545595.358353473</v>
       </c>
       <c r="F2" t="n">
-        <v>545595.3583534727</v>
+        <v>545595.3583534731</v>
       </c>
       <c r="G2" t="n">
         <v>545595.3583534728</v>
       </c>
       <c r="H2" t="n">
-        <v>545595.3583534729</v>
+        <v>545595.3583534728</v>
       </c>
       <c r="I2" t="n">
         <v>545595.3583534729</v>
       </c>
       <c r="J2" t="n">
-        <v>545595.3583534728</v>
+        <v>545595.358353473</v>
       </c>
       <c r="K2" t="n">
         <v>545595.358353473</v>
       </c>
       <c r="L2" t="n">
+        <v>545595.358353473</v>
+      </c>
+      <c r="M2" t="n">
         <v>545595.3583534728</v>
       </c>
-      <c r="M2" t="n">
-        <v>545595.3583534727</v>
-      </c>
       <c r="N2" t="n">
-        <v>545595.3583534728</v>
+        <v>545595.358353473</v>
       </c>
       <c r="O2" t="n">
-        <v>545595.3583534728</v>
+        <v>545595.358353473</v>
       </c>
       <c r="P2" t="n">
         <v>545595.3583534728</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196760.0786190602</v>
+        <v>196760.0786190587</v>
       </c>
       <c r="C3" t="n">
-        <v>27855.40645598168</v>
+        <v>27855.40645598304</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386246.8372288395</v>
+        <v>386246.8372288399</v>
       </c>
       <c r="C4" t="n">
         <v>377175.7121142549</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38078.94064598082</v>
+        <v>38078.94064598078</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34387.48710384966</v>
+        <v>34344.98484467244</v>
       </c>
       <c r="C6" t="n">
-        <v>211704.2512620079</v>
+        <v>211661.9937236304</v>
       </c>
       <c r="D6" t="n">
-        <v>224140.1058998371</v>
+        <v>224098.056492296</v>
       </c>
       <c r="E6" t="n">
-        <v>-455164.6113702158</v>
+        <v>-458640.8006682767</v>
       </c>
       <c r="F6" t="n">
-        <v>459078.8388299387</v>
+        <v>455602.6495318781</v>
       </c>
       <c r="G6" t="n">
-        <v>459078.8388299388</v>
+        <v>455602.6495318777</v>
       </c>
       <c r="H6" t="n">
-        <v>459078.8388299389</v>
+        <v>455602.6495318777</v>
       </c>
       <c r="I6" t="n">
-        <v>459078.8388299389</v>
+        <v>455602.6495318778</v>
       </c>
       <c r="J6" t="n">
-        <v>459078.8388299388</v>
+        <v>455602.6495318779</v>
       </c>
       <c r="K6" t="n">
-        <v>459078.838829939</v>
+        <v>455602.6495318779</v>
       </c>
       <c r="L6" t="n">
-        <v>459078.8388299388</v>
+        <v>455602.6495318779</v>
       </c>
       <c r="M6" t="n">
-        <v>251890.2705378658</v>
+        <v>248414.0812398048</v>
       </c>
       <c r="N6" t="n">
-        <v>459078.8388299388</v>
+        <v>455602.6495318779</v>
       </c>
       <c r="O6" t="n">
-        <v>459078.8388299388</v>
+        <v>455602.6495318779</v>
       </c>
       <c r="P6" t="n">
-        <v>459078.8388299388</v>
+        <v>455602.6495318777</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890282</v>
+        <v>204.1899378890267</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890282</v>
+        <v>204.1899378890267</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59010023696596</v>
+        <v>30.59010023696746</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>331.0681279392606</v>
       </c>
       <c r="I2" t="n">
-        <v>178.8295274378762</v>
+        <v>178.8295274378764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>98.30551518367562</v>
+        <v>98.30551518367599</v>
       </c>
       <c r="S2" t="n">
-        <v>190.3146295474665</v>
+        <v>190.3146295474667</v>
       </c>
       <c r="T2" t="n">
         <v>219.5025170893204</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.9043161647323</v>
+        <v>136.9043161647324</v>
       </c>
       <c r="H3" t="n">
         <v>107.9936872248772</v>
       </c>
       <c r="I3" t="n">
-        <v>74.2750195266144</v>
+        <v>74.27501952661451</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.88884584361404</v>
+        <v>72.88884584361423</v>
       </c>
       <c r="S3" t="n">
-        <v>163.5252051891205</v>
+        <v>163.5252051891206</v>
       </c>
       <c r="T3" t="n">
         <v>198.3944404597271</v>
@@ -27557,10 +27557,10 @@
         <v>158.9534387491532</v>
       </c>
       <c r="I4" t="n">
-        <v>144.3773550168172</v>
+        <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>67.32663672383717</v>
+        <v>67.32663672383735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.32936263045112</v>
+        <v>55.32936263045135</v>
       </c>
       <c r="R4" t="n">
-        <v>160.7372695280034</v>
+        <v>160.7372695280035</v>
       </c>
       <c r="S4" t="n">
-        <v>217.5996781856072</v>
+        <v>217.5996781856073</v>
       </c>
       <c r="T4" t="n">
         <v>226.3723226937267</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8208640719156908</v>
+        <v>0.8208640719156848</v>
       </c>
       <c r="H2" t="n">
-        <v>8.40667417650657</v>
+        <v>8.406674176506508</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6463621325297</v>
+        <v>31.64636213252947</v>
       </c>
       <c r="J2" t="n">
-        <v>69.66981202375443</v>
+        <v>69.66981202375391</v>
       </c>
       <c r="K2" t="n">
-        <v>104.4169881879456</v>
+        <v>104.4169881879449</v>
       </c>
       <c r="L2" t="n">
-        <v>129.5385070288355</v>
+        <v>129.5385070288345</v>
       </c>
       <c r="M2" t="n">
-        <v>144.1365484677661</v>
+        <v>144.1365484677651</v>
       </c>
       <c r="N2" t="n">
-        <v>146.4688285120966</v>
+        <v>146.4688285120955</v>
       </c>
       <c r="O2" t="n">
-        <v>138.306361396985</v>
+        <v>138.3063613969839</v>
       </c>
       <c r="P2" t="n">
-        <v>118.0412796215663</v>
+        <v>118.0412796215655</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.64408504608562</v>
+        <v>88.64408504608497</v>
       </c>
       <c r="R2" t="n">
-        <v>51.56360275747406</v>
+        <v>51.56360275747368</v>
       </c>
       <c r="S2" t="n">
-        <v>18.70544003877882</v>
+        <v>18.70544003877869</v>
       </c>
       <c r="T2" t="n">
-        <v>3.593332474810938</v>
+        <v>3.593332474810912</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06566912575325524</v>
+        <v>0.06566912575325477</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4392009984782872</v>
+        <v>0.4392009984782839</v>
       </c>
       <c r="H3" t="n">
-        <v>4.241757011619248</v>
+        <v>4.241757011619216</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12161332480068</v>
+        <v>15.12161332480057</v>
       </c>
       <c r="J3" t="n">
-        <v>41.49486275535432</v>
+        <v>41.49486275535401</v>
       </c>
       <c r="K3" t="n">
-        <v>70.92132965339957</v>
+        <v>70.92132965339904</v>
       </c>
       <c r="L3" t="n">
-        <v>95.3624799546825</v>
+        <v>95.36247995468179</v>
       </c>
       <c r="M3" t="n">
-        <v>111.2835161495204</v>
+        <v>111.2835161495196</v>
       </c>
       <c r="N3" t="n">
-        <v>114.2288596875612</v>
+        <v>114.2288596875603</v>
       </c>
       <c r="O3" t="n">
-        <v>104.4970901949633</v>
+        <v>104.4970901949626</v>
       </c>
       <c r="P3" t="n">
-        <v>83.86812750766521</v>
+        <v>83.8681275076646</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.06362219171961</v>
+        <v>56.0636221917192</v>
       </c>
       <c r="R3" t="n">
-        <v>27.2689883090291</v>
+        <v>27.2689883090289</v>
       </c>
       <c r="S3" t="n">
-        <v>8.157965914717302</v>
+        <v>8.157965914717241</v>
       </c>
       <c r="T3" t="n">
-        <v>1.770288235094499</v>
+        <v>1.770288235094486</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02889480253146627</v>
+        <v>0.02889480253146606</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3682113634064443</v>
+        <v>0.3682113634064416</v>
       </c>
       <c r="H4" t="n">
-        <v>3.273733758286389</v>
+        <v>3.273733758286365</v>
       </c>
       <c r="I4" t="n">
-        <v>11.07311991044108</v>
+        <v>11.07311991044099</v>
       </c>
       <c r="J4" t="n">
-        <v>26.03254339283561</v>
+        <v>26.03254339283542</v>
       </c>
       <c r="K4" t="n">
-        <v>42.77946567576689</v>
+        <v>42.77946567576657</v>
       </c>
       <c r="L4" t="n">
-        <v>54.74298761044538</v>
+        <v>54.74298761044498</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71880490197562</v>
+        <v>57.7188049019752</v>
       </c>
       <c r="N4" t="n">
-        <v>56.34638072927893</v>
+        <v>56.34638072927851</v>
       </c>
       <c r="O4" t="n">
-        <v>52.04500252948544</v>
+        <v>52.04500252948506</v>
       </c>
       <c r="P4" t="n">
-        <v>44.53349071599394</v>
+        <v>44.53349071599362</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.83268062124326</v>
+        <v>30.83268062124304</v>
       </c>
       <c r="R4" t="n">
-        <v>16.55612184916612</v>
+        <v>16.556121849166</v>
       </c>
       <c r="S4" t="n">
-        <v>6.416919851365032</v>
+        <v>6.416919851364985</v>
       </c>
       <c r="T4" t="n">
-        <v>1.573266734554807</v>
+        <v>1.573266734554795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02008425618580608</v>
+        <v>0.02008425618580593</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -32259,7 +32259,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S17" t="n">
         <v>99.83230779806951</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34149,7 +34149,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
         <v>473.099994678169</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34380,7 +34380,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
         <v>738.1512123099059</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
